--- a/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC2990E-CC84-4788-817B-51108ECCAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3F07A4-EB0F-4D3E-8EDA-12B994CF0A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3763F0D0-F12F-4465-B477-42152D7B088F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56DA0D0-05B4-4B4F-8B42-47B413D89591}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
   <si>
     <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
@@ -77,1630 +77,1612 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>Cuartil III</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>Cuartil III</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2015 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
     <t>25,73%</t>
   </si>
   <si>
     <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
   </si>
   <si>
     <t>27,67%</t>
@@ -2115,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E477CCC-491C-44A7-AC73-20B0917DDD66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3621FC-0164-429F-BE98-C6C19A443882}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2311,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -2320,13 +2302,13 @@
         <v>106949</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,16 +2356,16 @@
         <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>172</v>
@@ -2392,13 +2374,13 @@
         <v>164876</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -2407,13 +2389,13 @@
         <v>280313</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>448</v>
@@ -2422,13 +2404,13 @@
         <v>445189</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2425,13 @@
         <v>299474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -2458,13 +2440,13 @@
         <v>492238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -2473,18 +2455,18 @@
         <v>791712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2496,13 +2478,13 @@
         <v>41081</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -2511,13 +2493,13 @@
         <v>63363</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -2526,13 +2508,13 @@
         <v>104444</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2529,13 @@
         <v>32316</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -2562,13 +2544,13 @@
         <v>49778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2577,13 +2559,13 @@
         <v>82094</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2580,13 @@
         <v>33049</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -2613,13 +2595,13 @@
         <v>51889</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -2628,19 +2610,19 @@
         <v>84938</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>127</v>
@@ -2649,13 +2631,13 @@
         <v>129925</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>198</v>
@@ -2664,13 +2646,13 @@
         <v>201840</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>325</v>
@@ -2679,13 +2661,13 @@
         <v>331764</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2682,13 @@
         <v>236371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>356</v>
@@ -2715,13 +2697,13 @@
         <v>366870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>590</v>
@@ -2730,18 +2712,18 @@
         <v>603240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2735,13 @@
         <v>13219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2768,13 +2750,13 @@
         <v>15660</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -2783,13 +2765,13 @@
         <v>28879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2786,13 @@
         <v>7070</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2819,13 +2801,13 @@
         <v>17681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -2834,13 +2816,13 @@
         <v>24751</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2837,13 @@
         <v>6129</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2870,13 +2852,13 @@
         <v>14385</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2885,19 +2867,19 @@
         <v>20514</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -2906,13 +2888,13 @@
         <v>42821</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -2921,13 +2903,13 @@
         <v>61450</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -2936,13 +2918,13 @@
         <v>104270</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2939,13 @@
         <v>69239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -2972,13 +2954,13 @@
         <v>109176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -2987,13 +2969,13 @@
         <v>178414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,16 +2989,16 @@
         <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>100901</v>
+        <v>100900</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -3067,7 +3049,7 @@
         <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3076,13 +3058,13 @@
         <v>131866</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -3091,13 +3073,13 @@
         <v>213794</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3094,13 @@
         <v>84634</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>147</v>
@@ -3127,13 +3109,13 @@
         <v>150842</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>229</v>
@@ -3142,19 +3124,19 @@
         <v>235476</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>340</v>
@@ -3163,13 +3145,13 @@
         <v>337621</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>533</v>
@@ -3178,13 +3160,13 @@
         <v>543602</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>873</v>
@@ -3193,13 +3175,13 @@
         <v>881223</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,16 +3193,16 @@
         <v>608</v>
       </c>
       <c r="D23" s="7">
-        <v>605084</v>
+        <v>605083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -3229,13 +3211,13 @@
         <v>968283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1553</v>
@@ -3244,18 +3226,18 @@
         <v>1573366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5C6A9-1A52-4148-A637-4351D734E9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEF1B98-E282-474E-AFFF-1C21BC25151C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3398,13 +3380,13 @@
         <v>55325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -3413,13 +3395,13 @@
         <v>58326</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
@@ -3428,13 +3410,13 @@
         <v>113651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3431,13 @@
         <v>43432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3464,13 +3446,13 @@
         <v>80381</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -3479,13 +3461,13 @@
         <v>123813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3482,13 @@
         <v>43580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -3518,10 +3500,10 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>109</v>
@@ -3530,19 +3512,19 @@
         <v>116584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>169</v>
@@ -3551,13 +3533,13 @@
         <v>184742</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>298</v>
@@ -3566,13 +3548,13 @@
         <v>315695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>467</v>
@@ -3581,13 +3563,13 @@
         <v>500437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3584,13 @@
         <v>327079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>498</v>
@@ -3617,13 +3599,13 @@
         <v>527406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>797</v>
@@ -3632,18 +3614,18 @@
         <v>854485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3655,13 +3637,13 @@
         <v>40644</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3670,13 +3652,13 @@
         <v>78315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>114</v>
@@ -3685,13 +3667,13 @@
         <v>118959</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3688,13 @@
         <v>52352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -3721,13 +3703,13 @@
         <v>96596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -3736,13 +3718,13 @@
         <v>148948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3742,10 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -3772,13 +3754,13 @@
         <v>57985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3787,19 +3769,19 @@
         <v>101864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>192</v>
@@ -3808,13 +3790,13 @@
         <v>206201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>228</v>
@@ -3823,13 +3805,13 @@
         <v>241985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -3838,13 +3820,13 @@
         <v>448186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3841,13 @@
         <v>343076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>444</v>
@@ -3874,13 +3856,13 @@
         <v>474881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>763</v>
@@ -3889,18 +3871,18 @@
         <v>817957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3912,13 +3894,13 @@
         <v>12450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3927,13 +3909,13 @@
         <v>13281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3942,13 +3924,13 @@
         <v>25732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3945,13 @@
         <v>8163</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -3978,13 +3960,13 @@
         <v>15951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -3993,13 +3975,13 @@
         <v>24113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3996,13 @@
         <v>10102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4029,13 +4011,13 @@
         <v>8604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4044,19 +4026,19 @@
         <v>18706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>38</v>
@@ -4065,13 +4047,13 @@
         <v>44083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -4080,13 +4062,13 @@
         <v>66924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -4095,13 +4077,13 @@
         <v>111008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4098,13 @@
         <v>74798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>90</v>
@@ -4131,13 +4113,13 @@
         <v>104760</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>155</v>
@@ -4146,13 +4128,13 @@
         <v>179559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4151,13 @@
         <v>108419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -4187,10 +4169,10 @@
         <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>244</v>
@@ -4199,13 +4181,13 @@
         <v>258341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4202,13 @@
         <v>103947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -4235,13 +4217,13 @@
         <v>192927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -4250,13 +4232,13 @@
         <v>296874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4253,13 @@
         <v>97561</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>131</v>
@@ -4286,13 +4268,13 @@
         <v>139594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -4301,19 +4283,19 @@
         <v>237154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>399</v>
@@ -4322,13 +4304,13 @@
         <v>435026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -4337,13 +4319,13 @@
         <v>624604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>981</v>
@@ -4352,13 +4334,13 @@
         <v>1059630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4355,13 @@
         <v>744953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1032</v>
@@ -4388,13 +4370,13 @@
         <v>1107047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1715</v>
@@ -4403,18 +4385,18 @@
         <v>1852000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60081593-9DDD-4884-BF4F-8CFA624B0C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2925319A-E611-4B9D-9C52-3B938D94314A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4557,13 +4539,13 @@
         <v>36712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -4572,13 +4554,13 @@
         <v>62325</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -4587,13 +4569,13 @@
         <v>99036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4590,13 @@
         <v>34189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -4623,13 +4605,13 @@
         <v>50203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -4638,13 +4620,13 @@
         <v>84392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4641,13 @@
         <v>36883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -4674,13 +4656,13 @@
         <v>63462</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -4689,19 +4671,19 @@
         <v>100345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>143</v>
@@ -4710,13 +4692,13 @@
         <v>139147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -4725,13 +4707,13 @@
         <v>227259</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>346</v>
@@ -4740,13 +4722,13 @@
         <v>366406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4743,13 @@
         <v>246931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -4776,13 +4758,13 @@
         <v>403249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>611</v>
@@ -4791,18 +4773,18 @@
         <v>650179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4814,13 +4796,13 @@
         <v>52507</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -4829,13 +4811,13 @@
         <v>97310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>136</v>
@@ -4844,13 +4826,13 @@
         <v>149817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4847,13 @@
         <v>71954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -4880,13 +4862,13 @@
         <v>112737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -4895,13 +4877,13 @@
         <v>184691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4898,13 @@
         <v>99955</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -4931,13 +4913,13 @@
         <v>95941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>183</v>
@@ -4946,34 +4928,34 @@
         <v>195896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>224922</v>
+        <v>224921</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -4982,13 +4964,13 @@
         <v>259317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>460</v>
@@ -4997,13 +4979,13 @@
         <v>484238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,16 +4997,16 @@
         <v>419</v>
       </c>
       <c r="D13" s="7">
-        <v>449338</v>
+        <v>449337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>535</v>
@@ -5033,13 +5015,13 @@
         <v>565305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
@@ -5048,18 +5030,18 @@
         <v>1014642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5071,13 +5053,13 @@
         <v>17745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5086,13 +5068,13 @@
         <v>20733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -5101,13 +5083,13 @@
         <v>38477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5104,13 @@
         <v>28794</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -5137,13 +5119,13 @@
         <v>25044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M15" s="7">
         <v>48</v>
@@ -5152,13 +5134,13 @@
         <v>53838</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5155,13 @@
         <v>16043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5188,13 +5170,13 @@
         <v>28366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -5203,19 +5185,19 @@
         <v>44409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>48</v>
@@ -5224,13 +5206,13 @@
         <v>52157</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5239,13 +5221,13 @@
         <v>57583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -5254,13 +5236,13 @@
         <v>109740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5257,13 @@
         <v>114739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>123</v>
@@ -5290,13 +5272,13 @@
         <v>131725</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>227</v>
@@ -5305,13 +5287,13 @@
         <v>246464</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5310,13 @@
         <v>106963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -5343,13 +5325,13 @@
         <v>180367</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -5358,13 +5340,13 @@
         <v>287330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5361,13 @@
         <v>134938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5394,13 +5376,13 @@
         <v>187983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -5409,13 +5391,13 @@
         <v>322921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5412,13 @@
         <v>152881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H21" s="7">
         <v>171</v>
@@ -5445,13 +5427,13 @@
         <v>187769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="M21" s="7">
         <v>318</v>
@@ -5460,19 +5442,19 @@
         <v>340650</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>402</v>
@@ -5481,13 +5463,13 @@
         <v>416225</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -5496,13 +5478,13 @@
         <v>544159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>909</v>
@@ -5511,13 +5493,13 @@
         <v>960384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5514,13 @@
         <v>811007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1018</v>
@@ -5547,13 +5529,13 @@
         <v>1100278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1792</v>
@@ -5562,18 +5544,18 @@
         <v>1911285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00A4E8-4167-444A-AC1F-D0C5F813C418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ECBFE4-7639-4D86-AC19-4E2067EC7207}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5609,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5716,13 +5698,13 @@
         <v>42337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>145</v>
@@ -5731,13 +5713,13 @@
         <v>99181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>197</v>
@@ -5746,13 +5728,13 @@
         <v>141518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5749,13 @@
         <v>51690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -5782,13 +5764,13 @@
         <v>78536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -5797,13 +5779,13 @@
         <v>130226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5800,13 @@
         <v>6778</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -5833,13 +5815,13 @@
         <v>15940</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5848,19 +5830,19 @@
         <v>22718</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -5869,13 +5851,13 @@
         <v>35856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -5884,13 +5866,13 @@
         <v>52843</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5899,13 +5881,13 @@
         <v>88699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5902,13 @@
         <v>136661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -5935,13 +5917,13 @@
         <v>246500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -5950,18 +5932,18 @@
         <v>383161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5973,13 +5955,13 @@
         <v>116930</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H9" s="7">
         <v>247</v>
@@ -5988,13 +5970,13 @@
         <v>172265</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>364</v>
@@ -6003,13 +5985,13 @@
         <v>289195</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6006,13 @@
         <v>120491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -6039,13 +6021,13 @@
         <v>151349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -6054,13 +6036,13 @@
         <v>271840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6057,13 @@
         <v>21554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6090,13 +6072,13 @@
         <v>40006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -6105,19 +6087,19 @@
         <v>61560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>101</v>
@@ -6126,13 +6108,13 @@
         <v>108836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7">
         <v>135</v>
@@ -6141,13 +6123,13 @@
         <v>102580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>236</v>
@@ -6156,13 +6138,13 @@
         <v>211416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6159,13 @@
         <v>367811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>636</v>
@@ -6192,13 +6174,13 @@
         <v>466200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>999</v>
@@ -6207,18 +6189,18 @@
         <v>834011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6230,13 +6212,13 @@
         <v>49965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H14" s="7">
         <v>84</v>
@@ -6245,13 +6227,13 @@
         <v>58416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6260,13 +6242,13 @@
         <v>108380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6263,13 @@
         <v>37314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>228</v>
+        <v>492</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -6296,13 +6278,13 @@
         <v>43905</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -6311,13 +6293,13 @@
         <v>81219</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6314,13 @@
         <v>4592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6347,13 +6329,13 @@
         <v>11536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6362,19 +6344,19 @@
         <v>16128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>34</v>
@@ -6383,13 +6365,13 @@
         <v>35393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -6398,13 +6380,13 @@
         <v>45067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -6413,13 +6395,13 @@
         <v>80460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6416,13 @@
         <v>127264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>225</v>
@@ -6449,13 +6431,13 @@
         <v>158924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>360</v>
@@ -6464,13 +6446,13 @@
         <v>286188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6469,13 @@
         <v>209231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>522</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H19" s="7">
         <v>476</v>
@@ -6502,13 +6484,13 @@
         <v>329862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>699</v>
@@ -6517,13 +6499,13 @@
         <v>539094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6520,13 @@
         <v>209496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>395</v>
@@ -6553,13 +6535,13 @@
         <v>273790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>622</v>
@@ -6568,13 +6550,13 @@
         <v>483286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6571,13 @@
         <v>32924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -6604,13 +6586,13 @@
         <v>67482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M21" s="7">
         <v>143</v>
@@ -6619,19 +6601,19 @@
         <v>100406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>186</v>
@@ -6640,13 +6622,13 @@
         <v>180085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -6655,13 +6637,13 @@
         <v>200490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
@@ -6670,13 +6652,13 @@
         <v>380575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>553</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6673,13 @@
         <v>631736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1268</v>
@@ -6706,13 +6688,13 @@
         <v>871625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1942</v>
@@ -6721,18 +6703,18 @@
         <v>1503361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3F07A4-EB0F-4D3E-8EDA-12B994CF0A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A21B47-3740-4766-A10D-87C30D0A9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56DA0D0-05B4-4B4F-8B42-47B413D89591}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6BF6A43-3787-484E-8B1C-26DCCA6A0CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2007 (Tasa respuesta: 23,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="552">
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1615 +77,1624 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>Cuartil III</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>Cuartil III</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>17,18%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2016 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>38,1%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>35,17%</t>
+    <t>35,34%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>36,81%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>41,26%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>28,51%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3621FC-0164-429F-BE98-C6C19A443882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0445BF-00D0-4D2E-9FD2-5C3BECA30973}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2302,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -2302,19 +2311,19 @@
         <v>106949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>44</v>
@@ -2323,13 +2332,13 @@
         <v>45456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -2338,13 +2347,13 @@
         <v>84568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>126</v>
@@ -2353,19 +2362,19 @@
         <v>130023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>172</v>
@@ -2374,13 +2383,13 @@
         <v>164876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -2389,13 +2398,13 @@
         <v>280313</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>448</v>
@@ -2404,13 +2413,13 @@
         <v>445189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2434,13 @@
         <v>299474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -2440,13 +2449,13 @@
         <v>492238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -2455,18 +2464,18 @@
         <v>791712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2478,13 +2487,13 @@
         <v>41081</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -2493,13 +2502,13 @@
         <v>63363</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -2508,13 +2517,13 @@
         <v>104444</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2538,13 @@
         <v>32316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -2544,13 +2553,13 @@
         <v>49778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2559,19 +2568,19 @@
         <v>82094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>33</v>
@@ -2580,13 +2589,13 @@
         <v>33049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -2595,13 +2604,13 @@
         <v>51889</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -2610,19 +2619,19 @@
         <v>84938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>127</v>
@@ -2631,13 +2640,13 @@
         <v>129925</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>198</v>
@@ -2646,13 +2655,13 @@
         <v>201840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>325</v>
@@ -2661,13 +2670,13 @@
         <v>331764</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2691,13 @@
         <v>236371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>356</v>
@@ -2697,13 +2706,13 @@
         <v>366870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>590</v>
@@ -2712,18 +2721,18 @@
         <v>603240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2735,13 +2744,13 @@
         <v>13219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2750,13 +2759,13 @@
         <v>15660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -2765,13 +2774,13 @@
         <v>28879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2795,13 @@
         <v>7070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2801,13 +2810,13 @@
         <v>17681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -2816,19 +2825,19 @@
         <v>24751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -2837,13 +2846,13 @@
         <v>6129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2852,13 +2861,13 @@
         <v>14385</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2867,19 +2876,19 @@
         <v>20514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -2888,13 +2897,13 @@
         <v>42821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -2903,13 +2912,13 @@
         <v>61450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -2918,13 +2927,13 @@
         <v>104270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2948,13 @@
         <v>69239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -2954,13 +2963,13 @@
         <v>109176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -2969,13 +2978,13 @@
         <v>178414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,16 +2998,16 @@
         <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -3007,13 +3016,13 @@
         <v>141973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -3022,13 +3031,13 @@
         <v>242873</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3052,13 @@
         <v>81928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3058,13 +3067,13 @@
         <v>131866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -3073,19 +3082,19 @@
         <v>213794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>82</v>
@@ -3094,13 +3103,13 @@
         <v>84634</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>147</v>
@@ -3109,13 +3118,13 @@
         <v>150842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>229</v>
@@ -3124,19 +3133,19 @@
         <v>235476</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>340</v>
@@ -3145,13 +3154,13 @@
         <v>337621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>533</v>
@@ -3160,13 +3169,13 @@
         <v>543602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>873</v>
@@ -3175,13 +3184,13 @@
         <v>881223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,16 +3202,16 @@
         <v>608</v>
       </c>
       <c r="D23" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -3211,13 +3220,13 @@
         <v>968283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1553</v>
@@ -3226,18 +3235,18 @@
         <v>1573366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEF1B98-E282-474E-AFFF-1C21BC25151C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0D7E4-D78A-447A-9268-379A0CDC2A59}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,7 +3282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3380,13 +3389,13 @@
         <v>55325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -3395,13 +3404,13 @@
         <v>58326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
@@ -3410,13 +3419,13 @@
         <v>113651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3440,13 @@
         <v>43432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3446,13 +3455,13 @@
         <v>80381</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -3461,19 +3470,19 @@
         <v>123813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>40</v>
@@ -3482,13 +3491,13 @@
         <v>43580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -3500,10 +3509,10 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>109</v>
@@ -3512,19 +3521,19 @@
         <v>116584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>169</v>
@@ -3533,13 +3542,13 @@
         <v>184742</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>298</v>
@@ -3548,13 +3557,13 @@
         <v>315695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>467</v>
@@ -3563,13 +3572,13 @@
         <v>500437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3593,13 @@
         <v>327079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>498</v>
@@ -3599,13 +3608,13 @@
         <v>527406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>797</v>
@@ -3614,18 +3623,18 @@
         <v>854485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3637,13 +3646,13 @@
         <v>40644</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3652,13 +3661,13 @@
         <v>78315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>114</v>
@@ -3667,13 +3676,13 @@
         <v>118959</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3697,13 @@
         <v>52352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -3703,13 +3712,13 @@
         <v>96596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -3718,19 +3727,19 @@
         <v>148948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>40</v>
@@ -3742,10 +3751,10 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -3754,13 +3763,13 @@
         <v>57985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3769,19 +3778,19 @@
         <v>101864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>192</v>
@@ -3790,13 +3799,13 @@
         <v>206201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>228</v>
@@ -3805,13 +3814,13 @@
         <v>241985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -3820,13 +3829,13 @@
         <v>448186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3850,13 @@
         <v>343076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>444</v>
@@ -3856,13 +3865,13 @@
         <v>474881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>763</v>
@@ -3871,18 +3880,18 @@
         <v>817957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3894,13 +3903,13 @@
         <v>12450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3909,13 +3918,13 @@
         <v>13281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3924,13 +3933,13 @@
         <v>25732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3954,13 @@
         <v>8163</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -3960,13 +3969,13 @@
         <v>15951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -3975,19 +3984,19 @@
         <v>24113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -3996,13 +4005,13 @@
         <v>10102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4011,13 +4020,13 @@
         <v>8604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4026,19 +4035,19 @@
         <v>18706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>38</v>
@@ -4047,13 +4056,13 @@
         <v>44083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -4062,13 +4071,13 @@
         <v>66924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -4077,13 +4086,13 @@
         <v>111008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4107,13 @@
         <v>74798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>90</v>
@@ -4113,13 +4122,13 @@
         <v>104760</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>155</v>
@@ -4128,13 +4137,13 @@
         <v>179559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4160,13 @@
         <v>108419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -4166,13 +4175,13 @@
         <v>149922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>244</v>
@@ -4181,13 +4190,13 @@
         <v>258341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4211,13 @@
         <v>103947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -4217,13 +4226,13 @@
         <v>192927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -4232,19 +4241,19 @@
         <v>296874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>90</v>
@@ -4253,13 +4262,13 @@
         <v>97561</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>131</v>
@@ -4268,13 +4277,13 @@
         <v>139594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -4283,19 +4292,19 @@
         <v>237154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>399</v>
@@ -4304,13 +4313,13 @@
         <v>435026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -4319,13 +4328,13 @@
         <v>624604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>981</v>
@@ -4334,13 +4343,13 @@
         <v>1059630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4364,13 @@
         <v>744953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1032</v>
@@ -4370,13 +4379,13 @@
         <v>1107047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1715</v>
@@ -4385,18 +4394,18 @@
         <v>1852000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2925319A-E611-4B9D-9C52-3B938D94314A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE2CA90-24CA-40A6-8EC7-86640C594B59}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,13 +4548,13 @@
         <v>36712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -4554,10 +4563,10 @@
         <v>62325</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>293</v>
@@ -4569,13 +4578,13 @@
         <v>99036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4599,13 @@
         <v>34189</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -4605,13 +4614,13 @@
         <v>50203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -4620,19 +4629,19 @@
         <v>84392</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>38</v>
@@ -4641,13 +4650,13 @@
         <v>36883</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -4656,13 +4665,13 @@
         <v>63462</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -4671,19 +4680,19 @@
         <v>100345</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>143</v>
@@ -4692,13 +4701,13 @@
         <v>139147</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -4707,13 +4716,13 @@
         <v>227259</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>346</v>
@@ -4722,13 +4731,13 @@
         <v>366406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4752,13 @@
         <v>246931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -4758,13 +4767,13 @@
         <v>403249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>611</v>
@@ -4773,18 +4782,18 @@
         <v>650179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4796,10 +4805,10 @@
         <v>52507</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>320</v>
@@ -4814,7 +4823,7 @@
         <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>322</v>
@@ -4832,7 +4841,7 @@
         <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4856,13 @@
         <v>71954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -4862,10 +4871,10 @@
         <v>112737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>329</v>
@@ -4883,13 +4892,13 @@
         <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>93</v>
@@ -4898,13 +4907,13 @@
         <v>99955</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -4913,13 +4922,13 @@
         <v>95941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>183</v>
@@ -4928,19 +4937,19 @@
         <v>195896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>211</v>
@@ -4949,13 +4958,13 @@
         <v>224921</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -4964,13 +4973,13 @@
         <v>259317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>460</v>
@@ -4979,13 +4988,13 @@
         <v>484238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5009,13 @@
         <v>449337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>535</v>
@@ -5015,13 +5024,13 @@
         <v>565305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
@@ -5030,18 +5039,18 @@
         <v>1014642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5062,13 @@
         <v>17745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5068,13 +5077,13 @@
         <v>20733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -5083,13 +5092,13 @@
         <v>38477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5113,13 @@
         <v>28794</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -5119,13 +5128,13 @@
         <v>25044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M15" s="7">
         <v>48</v>
@@ -5134,19 +5143,19 @@
         <v>53838</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
@@ -5155,13 +5164,13 @@
         <v>16043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5170,13 +5179,13 @@
         <v>28366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -5185,19 +5194,19 @@
         <v>44409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>48</v>
@@ -5206,13 +5215,13 @@
         <v>52157</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5221,13 +5230,13 @@
         <v>57583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -5236,13 +5245,13 @@
         <v>109740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5266,13 @@
         <v>114739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>123</v>
@@ -5272,13 +5281,13 @@
         <v>131725</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>227</v>
@@ -5287,13 +5296,13 @@
         <v>246464</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5319,13 @@
         <v>106963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -5325,13 +5334,13 @@
         <v>180367</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -5340,13 +5349,13 @@
         <v>287330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5370,13 @@
         <v>134938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5376,13 +5385,13 @@
         <v>187983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -5391,19 +5400,19 @@
         <v>322921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>147</v>
@@ -5412,13 +5421,13 @@
         <v>152881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>171</v>
@@ -5427,7 +5436,7 @@
         <v>187769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>402</v>
@@ -5442,19 +5451,19 @@
         <v>340650</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>402</v>
@@ -5463,13 +5472,13 @@
         <v>416225</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -5478,13 +5487,13 @@
         <v>544159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>909</v>
@@ -5493,13 +5502,13 @@
         <v>960384</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5523,13 @@
         <v>811007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1018</v>
@@ -5529,13 +5538,13 @@
         <v>1100278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1792</v>
@@ -5544,18 +5553,18 @@
         <v>1911285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ECBFE4-7639-4D86-AC19-4E2067EC7207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC416A6-8474-40AA-B9C6-29350C3BBF86}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5698,13 +5707,13 @@
         <v>42337</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>145</v>
@@ -5713,13 +5722,13 @@
         <v>99181</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>197</v>
@@ -5728,13 +5737,13 @@
         <v>141518</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5758,13 @@
         <v>51690</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -5764,13 +5773,13 @@
         <v>78536</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -5779,19 +5788,19 @@
         <v>130226</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -5800,13 +5809,13 @@
         <v>6778</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -5815,13 +5824,13 @@
         <v>15940</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5830,19 +5839,19 @@
         <v>22718</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -5851,13 +5860,13 @@
         <v>35856</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -5866,13 +5875,13 @@
         <v>52843</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5881,7 +5890,7 @@
         <v>88699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>447</v>
@@ -5902,13 +5911,13 @@
         <v>136661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -5917,13 +5926,13 @@
         <v>246500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>583</v>
@@ -5932,18 +5941,18 @@
         <v>383161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5958,10 +5967,10 @@
         <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>247</v>
@@ -5970,13 +5979,13 @@
         <v>172265</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>364</v>
@@ -5985,13 +5994,13 @@
         <v>289195</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6015,13 @@
         <v>120491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -6021,13 +6030,13 @@
         <v>151349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -6036,19 +6045,19 @@
         <v>271840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>21</v>
@@ -6057,13 +6066,13 @@
         <v>21554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>469</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6072,13 +6081,13 @@
         <v>40006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -6087,19 +6096,19 @@
         <v>61560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>101</v>
@@ -6108,13 +6117,13 @@
         <v>108836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>135</v>
@@ -6123,13 +6132,13 @@
         <v>102580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>478</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>236</v>
@@ -6138,13 +6147,13 @@
         <v>211416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6168,13 @@
         <v>367811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>636</v>
@@ -6174,13 +6183,13 @@
         <v>466200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>999</v>
@@ -6189,18 +6198,18 @@
         <v>834011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6212,13 +6221,13 @@
         <v>49965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>84</v>
@@ -6227,13 +6236,13 @@
         <v>58416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6242,13 +6251,13 @@
         <v>108380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6272,13 @@
         <v>37314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -6278,13 +6287,13 @@
         <v>43905</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -6293,19 +6302,19 @@
         <v>81219</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>6</v>
@@ -6314,13 +6323,13 @@
         <v>4592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6329,13 +6338,13 @@
         <v>11536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6344,19 +6353,19 @@
         <v>16128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>34</v>
@@ -6365,13 +6374,13 @@
         <v>35393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -6380,13 +6389,13 @@
         <v>45067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -6395,13 +6404,13 @@
         <v>80460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6425,13 @@
         <v>127264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>225</v>
@@ -6431,13 +6440,13 @@
         <v>158924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>360</v>
@@ -6446,13 +6455,13 @@
         <v>286188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6478,13 @@
         <v>209231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
         <v>476</v>
@@ -6484,13 +6493,13 @@
         <v>329862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
         <v>699</v>
@@ -6499,13 +6508,13 @@
         <v>539094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6529,13 @@
         <v>209496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>395</v>
@@ -6535,13 +6544,13 @@
         <v>273790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>622</v>
@@ -6550,19 +6559,19 @@
         <v>483286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>38</v>
@@ -6571,13 +6580,13 @@
         <v>32924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -6586,13 +6595,13 @@
         <v>67482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>535</v>
+        <v>227</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="M21" s="7">
         <v>143</v>
@@ -6601,19 +6610,19 @@
         <v>100406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>186</v>
@@ -6622,13 +6631,13 @@
         <v>180085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -6637,13 +6646,13 @@
         <v>200490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
@@ -6652,13 +6661,13 @@
         <v>380575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6682,13 @@
         <v>631736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1268</v>
@@ -6688,13 +6697,13 @@
         <v>871625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1942</v>
@@ -6703,18 +6712,18 @@
         <v>1503361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 19,22</t>
+          <t>8,47; 20,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,31</t>
+          <t>8,15; 14,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,94</t>
+          <t>9,43; 19,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 43,37</t>
+          <t>18,47; 43,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,03</t>
+          <t>6,1; 11,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,33</t>
+          <t>6,82; 13,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 18,19</t>
+          <t>9,36; 17,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 34,36</t>
+          <t>18,42; 34,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,01</t>
+          <t>7,61; 12,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,62</t>
+          <t>8,03; 12,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,72</t>
+          <t>9,97; 16,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,29; 34,21</t>
+          <t>19,65; 33,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,56</t>
+          <t>6,58; 12,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,91</t>
+          <t>6,56; 12,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,9</t>
+          <t>6,5; 12,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 31,65</t>
+          <t>15,32; 32,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 14,78</t>
+          <t>7,35; 15,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,89</t>
+          <t>8,69; 15,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 23,5</t>
+          <t>11,68; 23,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 26,32</t>
+          <t>13,99; 24,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,78</t>
+          <t>7,78; 12,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 12,61</t>
+          <t>8,33; 12,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,27</t>
+          <t>9,89; 17,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,61</t>
+          <t>16,47; 26,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,68</t>
+          <t>4,64; 14,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 17,0</t>
+          <t>6,05; 17,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,95</t>
+          <t>4,78; 10,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 40,29</t>
+          <t>18,72; 39,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 23,07</t>
+          <t>6,29; 24,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,55</t>
+          <t>3,77; 10,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,14</t>
+          <t>6,58; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 25,2</t>
+          <t>13,11; 24,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 17,39</t>
+          <t>6,61; 16,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,27</t>
+          <t>5,15; 11,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,38</t>
+          <t>6,49; 12,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 28,46</t>
+          <t>16,9; 28,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,04</t>
+          <t>8,2; 14,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,28</t>
+          <t>8,2; 12,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,78</t>
+          <t>7,98; 12,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 30,73</t>
+          <t>19,26; 31,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,53</t>
+          <t>7,54; 11,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,39</t>
+          <t>8,04; 12,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,96</t>
+          <t>11,12; 18,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 24,48</t>
+          <t>16,52; 24,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,58</t>
+          <t>8,27; 11,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 11,53</t>
+          <t>8,57; 11,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,73</t>
+          <t>10,57; 14,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,71</t>
+          <t>18,69; 25,37</t>
         </is>
       </c>
     </row>
